--- a/artfynd/A 42874-2023.xlsx
+++ b/artfynd/A 42874-2023.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182653</v>
+        <v>112183485</v>
       </c>
       <c r="B3" t="n">
-        <v>90660</v>
+        <v>5426</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>101410</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>387566.0260545522</v>
+        <v>387592.4069985455</v>
       </c>
       <c r="R3" t="n">
-        <v>6855526.890799285</v>
+        <v>6855479.200472753</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112183485</v>
+        <v>112182653</v>
       </c>
       <c r="B4" t="n">
-        <v>5426</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,21 +938,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101410</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>387592.4069985455</v>
+        <v>387566.0260545522</v>
       </c>
       <c r="R4" t="n">
-        <v>6855479.200472753</v>
+        <v>6855526.890799285</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>

--- a/artfynd/A 42874-2023.xlsx
+++ b/artfynd/A 42874-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112183589</v>
+        <v>112183485</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>5426</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>101410</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>387651.1500317739</v>
+        <v>387592</v>
       </c>
       <c r="R2" t="n">
-        <v>6855493.826027955</v>
+        <v>6855479</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -757,19 +757,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -801,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112183485</v>
+        <v>112182653</v>
       </c>
       <c r="B3" t="n">
-        <v>5426</v>
+        <v>90660</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101410</v>
+        <v>4362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -845,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>387592.4069985455</v>
+        <v>387566</v>
       </c>
       <c r="R3" t="n">
-        <v>6855479.200472753</v>
+        <v>6855527</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,19 +868,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -922,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112182653</v>
+        <v>112183589</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +914,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -966,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>387566.0260545522</v>
+        <v>387651</v>
       </c>
       <c r="R4" t="n">
-        <v>6855526.890799285</v>
+        <v>6855494</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -999,19 +979,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1087,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>387554.62349633</v>
+        <v>387555</v>
       </c>
       <c r="R5" t="n">
-        <v>6855525.846437068</v>
+        <v>6855526</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1120,19 +1090,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">

--- a/artfynd/A 42874-2023.xlsx
+++ b/artfynd/A 42874-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112183485</v>
+        <v>112183324</v>
       </c>
       <c r="B2" t="n">
-        <v>5426</v>
+        <v>90823</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>101410</v>
+        <v>5966</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>387592</v>
+        <v>387555</v>
       </c>
       <c r="R2" t="n">
-        <v>6855479</v>
+        <v>6855526</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182653</v>
+        <v>112183485</v>
       </c>
       <c r="B3" t="n">
-        <v>90660</v>
+        <v>5426</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>101410</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>387566</v>
+        <v>387592</v>
       </c>
       <c r="R3" t="n">
-        <v>6855527</v>
+        <v>6855479</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112183589</v>
+        <v>112182653</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>90794</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -914,25 +914,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>387651</v>
+        <v>387566</v>
       </c>
       <c r="R4" t="n">
-        <v>6855494</v>
+        <v>6855527</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112183324</v>
+        <v>112183589</v>
       </c>
       <c r="B5" t="n">
-        <v>90689</v>
+        <v>90812</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1025,25 +1025,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>387555</v>
+        <v>387651</v>
       </c>
       <c r="R5" t="n">
-        <v>6855526</v>
+        <v>6855494</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>

--- a/artfynd/A 42874-2023.xlsx
+++ b/artfynd/A 42874-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112183324</v>
+        <v>112183485</v>
       </c>
       <c r="B2" t="n">
-        <v>90823</v>
+        <v>5426</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5966</v>
+        <v>101410</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>387555</v>
+        <v>387592</v>
       </c>
       <c r="R2" t="n">
-        <v>6855526</v>
+        <v>6855479</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112183485</v>
+        <v>112183324</v>
       </c>
       <c r="B3" t="n">
-        <v>5426</v>
+        <v>90837</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101410</v>
+        <v>5966</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>387592</v>
+        <v>387555</v>
       </c>
       <c r="R3" t="n">
-        <v>6855479</v>
+        <v>6855526</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112182653</v>
+        <v>112183589</v>
       </c>
       <c r="B4" t="n">
-        <v>90794</v>
+        <v>90826</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -914,25 +914,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>387566</v>
+        <v>387651</v>
       </c>
       <c r="R4" t="n">
-        <v>6855527</v>
+        <v>6855494</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112183589</v>
+        <v>112182653</v>
       </c>
       <c r="B5" t="n">
-        <v>90812</v>
+        <v>90808</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1025,25 +1025,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>387651</v>
+        <v>387566</v>
       </c>
       <c r="R5" t="n">
-        <v>6855494</v>
+        <v>6855527</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>

--- a/artfynd/A 42874-2023.xlsx
+++ b/artfynd/A 42874-2023.xlsx
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112183589</v>
+        <v>112182653</v>
       </c>
       <c r="B4" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -914,25 +914,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>387651</v>
+        <v>387566</v>
       </c>
       <c r="R4" t="n">
-        <v>6855494</v>
+        <v>6855527</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112182653</v>
+        <v>112183589</v>
       </c>
       <c r="B5" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1025,25 +1025,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>387566</v>
+        <v>387651</v>
       </c>
       <c r="R5" t="n">
-        <v>6855527</v>
+        <v>6855494</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
